--- a/Dataset/Best_XI.xlsx
+++ b/Dataset/Best_XI.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kecco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniDispense\ICON\ICON_Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867AA096-EE31-45DD-AED0-F18CF883C9CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15D123F-1C72-40ED-A58D-A77199FB1B51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="2208" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31470" yWindow="-5955" windowWidth="17850" windowHeight="14085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="26" sheetId="1" r:id="rId1"/>
-    <sheet name="27" sheetId="2" r:id="rId2"/>
-    <sheet name="28" sheetId="3" r:id="rId3"/>
+    <sheet name="g26" sheetId="1" r:id="rId1"/>
+    <sheet name="g27" sheetId="2" r:id="rId2"/>
+    <sheet name="g28" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -479,20 +479,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -509,7 +509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -526,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -543,7 +543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -560,7 +560,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -577,7 +577,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -594,7 +594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -611,7 +611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -628,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -662,7 +662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -679,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -696,7 +696,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <f>SUM(E2:E12)</f>
         <v>81.5</v>
@@ -712,19 +712,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BE4699-2264-4CD1-8D5C-BE6D7B0042CE}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -741,7 +741,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -758,7 +758,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -792,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -809,7 +809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -826,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -843,7 +843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -860,7 +860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -877,7 +877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -894,7 +894,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -911,7 +911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -928,7 +928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <f>SUM(E2:E12)</f>
         <v>89.5</v>
@@ -944,18 +944,18 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -972,7 +972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -989,7 +989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <f>SUM(E2:E12)</f>
         <v>79</v>

--- a/Dataset/Best_XI.xlsx
+++ b/Dataset/Best_XI.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniDispense\ICON\ICON_Project\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kecco\Documents\GitHub\ICON_Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15D123F-1C72-40ED-A58D-A77199FB1B51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401E5EE7-AC3F-46F9-864C-6E058BF398F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31470" yWindow="-5955" windowWidth="17850" windowHeight="14085" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="g26" sheetId="1" r:id="rId1"/>
-    <sheet name="g27" sheetId="2" r:id="rId2"/>
-    <sheet name="g28" sheetId="3" r:id="rId3"/>
+    <sheet name="g24" sheetId="5" r:id="rId1"/>
+    <sheet name="g25" sheetId="4" r:id="rId2"/>
+    <sheet name="g26" sheetId="1" r:id="rId3"/>
+    <sheet name="g27" sheetId="2" r:id="rId4"/>
+    <sheet name="g28" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="43">
   <si>
     <t>P</t>
   </si>
@@ -101,9 +103,6 @@
     <t>Barak</t>
   </si>
   <si>
-    <t>Verona</t>
-  </si>
-  <si>
     <t>Candreva</t>
   </si>
   <si>
@@ -158,7 +157,16 @@
     <t>Fantavoto</t>
   </si>
   <si>
-    <t>FantaVoto</t>
+    <t>Cragno</t>
+  </si>
+  <si>
+    <t>Bentancur</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Juve</t>
   </si>
 </sst>
 </file>
@@ -476,59 +484,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D956CE0B-8A24-42B1-A2FC-2C55B7E799C4}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -537,66 +545,66 @@
         <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="E3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="1">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -605,55 +613,55 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="E7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>7</v>
@@ -662,44 +670,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="E12" s="1">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="1">
-        <f>SUM(E2:E12)</f>
-        <v>81.5</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -709,92 +711,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BE4699-2264-4CD1-8D5C-BE6D7B0042CE}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9226C449-8CBD-4EFC-88AC-5E83852B2BEC}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>6.5</v>
       </c>
       <c r="E2" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
       </c>
       <c r="E3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="E4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -803,135 +803,129 @@
         <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="E5" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
         <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="1">
-        <f>SUM(E2:E12)</f>
-        <v>89.5</v>
       </c>
     </row>
   </sheetData>
@@ -940,44 +934,502 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BE4699-2264-4CD1-8D5C-BE6D7B0042CE}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01736E4C-F4D4-4C94-B39D-92D7D1633382}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -989,12 +1441,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1006,12 +1458,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1023,12 +1475,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1040,12 +1492,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1057,12 +1509,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1074,46 +1526,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1125,12 +1577,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -1142,15 +1594,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
       </c>
       <c r="D12" s="1">
         <v>6.5</v>
@@ -1159,11 +1611,8 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="1">
-        <f>SUM(E2:E12)</f>
-        <v>79</v>
-      </c>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dataset/Best_XI.xlsx
+++ b/Dataset/Best_XI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kecco\Documents\GitHub\ICON_Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401E5EE7-AC3F-46F9-864C-6E058BF398F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C6963D-4400-40FD-90A3-F629FE62A49B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6396" yWindow="1284" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g24" sheetId="5" r:id="rId1"/>
@@ -43,15 +43,9 @@
     <t>P</t>
   </si>
   <si>
-    <t>Audero</t>
-  </si>
-  <si>
     <t>Sampdoria</t>
   </si>
   <si>
-    <t>Consigli</t>
-  </si>
-  <si>
     <t>Sassuolo</t>
   </si>
   <si>
@@ -61,84 +55,33 @@
     <t>D</t>
   </si>
   <si>
-    <t>Bruno Peres</t>
-  </si>
-  <si>
     <t>Roma</t>
   </si>
   <si>
-    <t>Darmian</t>
-  </si>
-  <si>
     <t>Inter</t>
   </si>
   <si>
-    <t>Dijks</t>
-  </si>
-  <si>
     <t>Bologna</t>
   </si>
   <si>
-    <t>Karsdorp</t>
-  </si>
-  <si>
-    <t>Pezzella Ger.</t>
-  </si>
-  <si>
     <t>Fiorentina</t>
   </si>
   <si>
-    <t>Spinazzola</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>Juventus</t>
   </si>
   <si>
-    <t>Barak</t>
-  </si>
-  <si>
-    <t>Candreva</t>
-  </si>
-  <si>
-    <t>Perisic</t>
-  </si>
-  <si>
-    <t>Pessina</t>
-  </si>
-  <si>
     <t>Atalanta</t>
   </si>
   <si>
-    <t>Zielinski</t>
-  </si>
-  <si>
     <t>Napoli</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Joao Pedro</t>
-  </si>
-  <si>
-    <t>Quagliarella</t>
-  </si>
-  <si>
-    <t>Ribery</t>
-  </si>
-  <si>
-    <t>Ronaldo</t>
-  </si>
-  <si>
-    <t>Simy</t>
-  </si>
-  <si>
     <t>Crotone</t>
   </si>
   <si>
@@ -148,25 +91,82 @@
     <t>Squadra</t>
   </si>
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>Voto</t>
   </si>
   <si>
     <t>Fantavoto</t>
   </si>
   <si>
-    <t>Cragno</t>
-  </si>
-  <si>
-    <t>Bentancur</t>
-  </si>
-  <si>
     <t>Hellas Verona</t>
   </si>
   <si>
     <t>Juve</t>
+  </si>
+  <si>
+    <t>Nome_Cognome</t>
+  </si>
+  <si>
+    <t>Emil-Audero</t>
+  </si>
+  <si>
+    <t>Andrea-Consigli</t>
+  </si>
+  <si>
+    <t>Alessio-Cragno</t>
+  </si>
+  <si>
+    <t>Bruno-Peres</t>
+  </si>
+  <si>
+    <t>Matteo-Darmian</t>
+  </si>
+  <si>
+    <t>Rick-Karsdorp</t>
+  </si>
+  <si>
+    <t>Mitchell-Dijks</t>
+  </si>
+  <si>
+    <t>German-Pezzella</t>
+  </si>
+  <si>
+    <t>Leonardo-Spinazzola</t>
+  </si>
+  <si>
+    <t>Ashley-Young</t>
+  </si>
+  <si>
+    <t>Antonin-Barak</t>
+  </si>
+  <si>
+    <t>Antonio-Candreva</t>
+  </si>
+  <si>
+    <t>Ivan-Perisic</t>
+  </si>
+  <si>
+    <t>Piotr-Zielinski</t>
+  </si>
+  <si>
+    <t>Joao-Pedro</t>
+  </si>
+  <si>
+    <t>Fabio-Quagliarella</t>
+  </si>
+  <si>
+    <t>Franck-Ribery</t>
+  </si>
+  <si>
+    <t>Cristiano-Ronaldo</t>
+  </si>
+  <si>
+    <t>Simeon-Nwankwo</t>
+  </si>
+  <si>
+    <t>Matteo-Pessina</t>
+  </si>
+  <si>
+    <t>Rodrigo-Bentancur</t>
   </si>
 </sst>
 </file>
@@ -488,12 +488,12 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E12" sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" customWidth="1"/>
@@ -502,30 +502,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>6.5</v>
@@ -536,13 +536,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>6.5</v>
@@ -553,13 +553,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>7</v>
@@ -570,13 +570,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -587,13 +587,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>7</v>
@@ -604,13 +604,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>6.5</v>
@@ -621,13 +621,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>6.5</v>
@@ -638,13 +638,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -655,13 +655,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>7</v>
@@ -672,13 +672,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
         <v>6.5</v>
@@ -715,7 +715,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,30 +726,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>6.5</v>
@@ -760,13 +760,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
@@ -777,13 +777,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>6.5</v>
@@ -794,13 +794,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>5.5</v>
@@ -811,13 +811,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>6.5</v>
@@ -828,13 +828,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
         <v>6.5</v>
@@ -845,13 +845,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>6.5</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>6</v>
@@ -879,13 +879,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
@@ -896,13 +896,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
         <v>6.5</v>
@@ -913,13 +913,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1">
         <v>7</v>
@@ -938,7 +938,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,30 +952,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>7</v>
@@ -986,13 +986,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>6.5</v>
@@ -1020,13 +1020,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>6.5</v>
@@ -1037,13 +1037,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
@@ -1054,13 +1054,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -1088,13 +1088,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <v>7</v>
@@ -1122,13 +1122,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>6</v>
@@ -1139,13 +1139,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1">
         <v>7.5</v>
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1181,30 +1181,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>6.5</v>
@@ -1215,13 +1215,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>6</v>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>6</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -1300,13 +1300,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -1317,13 +1317,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
@@ -1334,13 +1334,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>7</v>
@@ -1351,13 +1351,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>8.5</v>
@@ -1368,13 +1368,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1">
         <v>8</v>
@@ -1396,12 +1396,12 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" customWidth="1"/>
@@ -1409,30 +1409,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>6</v>
@@ -1443,13 +1443,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
         <v>6</v>
@@ -1460,13 +1460,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>6</v>
@@ -1477,13 +1477,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1">
         <v>6</v>
@@ -1494,13 +1494,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>7</v>
@@ -1511,13 +1511,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -1528,13 +1528,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -1545,13 +1545,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
@@ -1562,13 +1562,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
@@ -1579,13 +1579,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1">
         <v>7</v>
@@ -1596,13 +1596,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1">
         <v>6.5</v>

--- a/Dataset/Best_XI.xlsx
+++ b/Dataset/Best_XI.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kecco\Documents\GitHub\ICON_Project\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniDispense\ICON\ICON_Project\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C6963D-4400-40FD-90A3-F629FE62A49B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3778A0C0-CEE5-4099-BCA8-0E6388602D3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6396" yWindow="1284" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27195" yWindow="-7185" windowWidth="17850" windowHeight="14085" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="g24" sheetId="5" r:id="rId1"/>
-    <sheet name="g25" sheetId="4" r:id="rId2"/>
-    <sheet name="g26" sheetId="1" r:id="rId3"/>
-    <sheet name="g27" sheetId="2" r:id="rId4"/>
-    <sheet name="g28" sheetId="3" r:id="rId5"/>
+    <sheet name="24" sheetId="5" r:id="rId1"/>
+    <sheet name="25" sheetId="4" r:id="rId2"/>
+    <sheet name="26" sheetId="1" r:id="rId3"/>
+    <sheet name="27" sheetId="2" r:id="rId4"/>
+    <sheet name="28" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -487,20 +487,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D956CE0B-8A24-42B1-A2FC-2C55B7E799C4}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -517,7 +517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -534,7 +534,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -551,7 +551,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -568,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -585,7 +585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -602,7 +602,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -619,7 +619,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -636,7 +636,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -653,7 +653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -687,7 +687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -718,13 +718,13 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -741,7 +741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -758,7 +758,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -775,7 +775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -792,7 +792,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -809,7 +809,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -826,7 +826,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -843,7 +843,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -860,7 +860,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -877,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -894,7 +894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -911,7 +911,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -941,16 +941,16 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -967,7 +967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="1"/>
     </row>
   </sheetData>
@@ -1171,15 +1171,15 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="1"/>
     </row>
   </sheetData>
@@ -1395,19 +1395,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01736E4C-F4D4-4C94-B39D-92D7D1633382}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="1"/>
     </row>
   </sheetData>
